--- a/Dokumentation/neueDirectParameterPageMitSensordaten.xlsx
+++ b/Dokumentation/neueDirectParameterPageMitSensordaten.xlsx
@@ -59,10 +59,10 @@
     <t>Pid Mode</t>
   </si>
   <si>
-    <t>0 -&gt; Status des Buttons
-1 -&gt; Status des Potentiometers
-2 -&gt; Intern generierter Sägezahn
-3 -&gt; Sensorwerte des Pyrometers+Leistungsmessers</t>
+    <t>0 -&gt; Sensorwerte des Pyrometers und Leistungsmessers
+1 -&gt; State des Buttons
+2 -&gt; Status des Potentiometers
+3 -&gt; Intern generierter Sägezahn</t>
   </si>
 </sst>
 </file>
@@ -424,13 +424,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
